--- a/biology/Zoologie/Ancistrus_aguaboensis/Ancistrus_aguaboensis.xlsx
+++ b/biology/Zoologie/Ancistrus_aguaboensis/Ancistrus_aguaboensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancistrus aguaboensis est une espèce de poissons-chats de la famille des Loricariidae. Ce poisson dépasse rarement les six centimètres. Il serait uniquement présent dans la partie haute du rio Tocantins au Brésil.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ancistrus aguaboensis a été décrite en 2001 par Sonia Fisch-Muller (d), Rosana Mazzoni (d) &amp; Claude Weber[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ancistrus aguaboensis a été décrite en 2001 par Sonia Fisch-Muller (d), Rosana Mazzoni (d) &amp; Claude Weber,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancistrus aguaboensis est un poisson d'eau douce qui se rencontre en Amérique du Sud dans la partie supérieure du rio Tocantins[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancistrus aguaboensis est un poisson d'eau douce qui se rencontre en Amérique du Sud dans la partie supérieure du rio Tocantins.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles peuvent atteindre 6,7 cm de longueur totale[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles peuvent atteindre 6,7 cm de longueur totale.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Sonia Fisch-Muller, Rosana Mazzoni et Claude Weber, « Genetic and morphological evidences for two new sibling species of Ancistrus (Siluriformes: Loricariidae) in upper rio Tocantins drainage, Brazil », Ichthyological Exploration of Freshwaters, vol. 12, no 4,‎ 2001, p. 289-304 (ISSN 0936-9902)</t>
         </is>
